--- a/doc/data/excel_output/Indicators.xlsx
+++ b/doc/data/excel_output/Indicators.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EN 15804+A2</t>
+          <t>EN 15804+A2 (EF 3.0)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ISO 14025</t>
+          <t>EN 15804+A2 (EF 3.1)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -563,22 +563,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4f2eb655-6e44-4874-a95a-e28f5442cd4d</t>
+          <t>d4aa3ec7-b1d7-4a4a-a6cb-37af88dcc902</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>ISO 14025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>source data set</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4f2eb655-6e44-4874-a95a-e28f5442cd4d</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>ISO 21930</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>source data set</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>9c1e8451-2321-4498-b459-b6568b6b6547</t>
         </is>
